--- a/0.Raw Data/Aims_calibration_algorithm.xlsx
+++ b/0.Raw Data/Aims_calibration_algorithm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hu-my.sharepoint.com/personal/leacavalli_g_harvard_edu/Documents/Documents/GitHub/Calibration-Review/0.Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{F4A1D828-34DC-4A31-8D1D-F5F3E889670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B10A90EB-8139-4AAA-AAEB-91BAA938B950}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{F4A1D828-34DC-4A31-8D1D-F5F3E889670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF70CCB-126B-4DBD-89B7-42118C3743F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{E95A1427-164D-4694-8347-33B14AB4E4A0}"/>
+    <workbookView minimized="1" xWindow="41220" yWindow="-1860" windowWidth="18645" windowHeight="11625" xr2:uid="{E95A1427-164D-4694-8347-33B14AB4E4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Incremental Mixture Importance Sampling (IMIS)</t>
   </si>
   <si>
-    <t>Monte-Carlo filtering</t>
-  </si>
-  <si>
     <t>Sampling importance resampling (SIR)</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Grey Wolf Optimizer (GWO)</t>
   </si>
   <si>
-    <t>Least squares estimation</t>
-  </si>
-  <si>
     <t>Sequential Monte Carlo (SMC)</t>
   </si>
   <si>
@@ -138,6 +132,12 @@
   </si>
   <si>
     <t>History matching with emulation (HME)</t>
+  </si>
+  <si>
+    <t>Least squares estimatio</t>
+  </si>
+  <si>
+    <t>Laplace approximation</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06005AD6-9036-4CBD-8330-BAF1889AB8CB}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,10 +558,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -598,7 +598,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -606,21 +606,21 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -694,7 +694,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
@@ -749,59 +749,59 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
+      <c r="A25" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
+      <c r="A31" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
